--- a/Final_bom.xlsx
+++ b/Final_bom.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Desktop\ECE 411\Synthy Repo\synthy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewforsman/Practicum/synthy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38363F67-72FF-477B-A24E-9127D4FD53AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{6BA9F994-4B08-4D4A-8C9A-5F972169FB34}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="18720" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="246">
   <si>
     <t>SOURCE</t>
   </si>
@@ -168,9 +173,6 @@
     <t>M9993-ND</t>
   </si>
   <si>
-    <t>445-173276-1-ND</t>
-  </si>
-  <si>
     <t>408-1805-1-ND</t>
   </si>
   <si>
@@ -252,15 +254,6 @@
     <t>RL622-101K-RC</t>
   </si>
   <si>
-    <t>CAP CER 0.47UF 50V X7R RADIAL</t>
-  </si>
-  <si>
-    <t>FG18X7R1H474KRT06</t>
-  </si>
-  <si>
-    <t>TDK Corporation</t>
-  </si>
-  <si>
     <t>RES SMD 100 OHM 1W 1206 WIDE</t>
   </si>
   <si>
@@ -555,15 +548,6 @@
     <t>399-11174-1-ND</t>
   </si>
   <si>
-    <t>RES SMD 22K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF2202V</t>
-  </si>
-  <si>
-    <t>P22.0KCCT-ND</t>
-  </si>
-  <si>
     <t>RES SMD 91K OHM 1% 1/8W 0805</t>
   </si>
   <si>
@@ -685,12 +669,117 @@
   </si>
   <si>
     <t>Header Pins, a whole lot of them.</t>
+  </si>
+  <si>
+    <t>SHORT FEATHER MALE HEADERS - 12-</t>
+  </si>
+  <si>
+    <t>RES SMD 15K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>DC DC CONVERTER +/-15V 3W</t>
+  </si>
+  <si>
+    <t>CONN PWR JACK 2X5.5MM KINKED PIN</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>SWITCH TOGGLE 3PDT 5A 120V</t>
+  </si>
+  <si>
+    <t>CONN IC DIP SOCKET 8POS TIN</t>
+  </si>
+  <si>
+    <t>CONN IC DIP SOCKET 16POS TIN</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>1528-2039-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1502V</t>
+  </si>
+  <si>
+    <t>P15.0KCCT-ND</t>
+  </si>
+  <si>
+    <t>DCWN03A-15</t>
+  </si>
+  <si>
+    <t>MEAN WELL USA Inc.</t>
+  </si>
+  <si>
+    <t>1866-1277-ND</t>
+  </si>
+  <si>
+    <t>PJ-202A</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>CP-202A-ND</t>
+  </si>
+  <si>
+    <t>RS-187R05A2-DS MT RT</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>CKN10361CT-ND</t>
+  </si>
+  <si>
+    <t>1003P1T1B1M2QEH</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>EG2425-ND</t>
+  </si>
+  <si>
+    <t>DILB8P-223TLF</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>609-4717-ND</t>
+  </si>
+  <si>
+    <t>DILB16P-223TLF</t>
+  </si>
+  <si>
+    <t>609-4713-ND</t>
+  </si>
+  <si>
+    <t>M20-9990246</t>
+  </si>
+  <si>
+    <t>Harwin Inc.</t>
+  </si>
+  <si>
+    <t>952-2262-ND</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Per Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -746,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,6 +843,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1068,26 +1158,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BCB7EE-4B0C-4B2B-B82C-E6755F966470}">
-  <dimension ref="A1:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.3046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.69140625" customWidth="1"/>
-    <col min="4" max="4" width="21.07421875" customWidth="1"/>
-    <col min="5" max="5" width="13.69140625" customWidth="1"/>
-    <col min="6" max="6" width="19.84375" customWidth="1"/>
-    <col min="7" max="8" width="14.07421875" customWidth="1"/>
-    <col min="9" max="9" width="16.3046875" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,13 +1192,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -1117,7 +1207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1212,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1258,7 +1348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1379,10 +1469,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>6.99</v>
@@ -1400,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="D14" t="s">
         <v>41</v>
@@ -1412,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1438,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>22</v>
       </c>
@@ -1461,7 +1551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -1484,53 +1574,53 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -1543,21 +1633,21 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1570,21 +1660,21 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1597,21 +1687,21 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1624,223 +1714,223 @@
       </c>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>0.36</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="H26" s="6">
-        <v>1.8</v>
+        <v>4.91</v>
       </c>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <v>0.49099999999999999</v>
+        <v>0.2228</v>
       </c>
       <c r="H27" s="6">
-        <v>4.91</v>
+        <v>5.57</v>
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.2228</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H28" s="6">
-        <v>5.57</v>
+        <v>0.33</v>
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>3.5000000000000003E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="H29" s="6">
-        <v>0.35</v>
+        <v>3.92</v>
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>20</v>
       </c>
       <c r="G30">
-        <v>0.19600000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="H30" s="6">
-        <v>3.92</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>0.80400000000000005</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="H31" s="6">
-        <v>16.079999999999998</v>
+        <v>6.46</v>
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>6.4600000000000005E-2</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="H32" s="6">
-        <v>6.46</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>0.39800000000000002</v>
+        <v>3.78E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>7.96</v>
+        <v>1.89</v>
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1848,134 +1938,134 @@
         <v>96</v>
       </c>
       <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>3.78E-2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1.89</v>
-      </c>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>101</v>
       </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1.08</v>
-      </c>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
         <v>103</v>
       </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>8.4000000000000005E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="H36" s="6">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>107</v>
       </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>2.9700000000000001E-2</v>
+        <v>0.43</v>
       </c>
       <c r="H38" s="6">
-        <v>2.97</v>
+        <v>2.15</v>
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -1989,20 +2079,20 @@
         <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="H39" s="6">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2016,20 +2106,20 @@
         <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H40" s="6">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2043,20 +2133,20 @@
         <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>0.6</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="H41" s="6">
-        <v>3</v>
+        <v>3.63</v>
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -2070,20 +2160,20 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>0.36299999999999999</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H42" s="6">
-        <v>3.63</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -2097,20 +2187,20 @@
         <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43">
-        <v>2.0099999999999998</v>
+        <v>6.17</v>
       </c>
       <c r="H43" s="6">
-        <v>8.0399999999999991</v>
+        <v>24.68</v>
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2118,53 +2208,53 @@
         <v>132</v>
       </c>
       <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
         <v>133</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H44" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>134</v>
       </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>6.17</v>
-      </c>
-      <c r="H44" s="6">
-        <v>24.68</v>
-      </c>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45">
-        <v>0.28000000000000003</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="H45" s="6">
-        <v>5.6</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -2178,20 +2268,20 @@
         <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>0.20100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="H46" s="6">
-        <v>2.0099999999999998</v>
+        <v>3.15</v>
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2199,80 +2289,80 @@
         <v>143</v>
       </c>
       <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0.216</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>145</v>
       </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <v>0.63</v>
-      </c>
-      <c r="H47" s="6">
-        <v>3.15</v>
-      </c>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>146</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
-        <v>148</v>
-      </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
       <c r="G48">
-        <v>0.216</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H48" s="6">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
       </c>
       <c r="D49" t="s">
         <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>0.10100000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="H49" s="6">
-        <v>1.01</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -2280,323 +2370,323 @@
         <v>153</v>
       </c>
       <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
         <v>154</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>0.112</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>155</v>
       </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="G50">
-        <v>0.111</v>
-      </c>
-      <c r="H50" s="6">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>0.18</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>158</v>
       </c>
-      <c r="E51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
-      </c>
-      <c r="G51">
-        <v>0.112</v>
-      </c>
-      <c r="H51" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>159</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
         <v>160</v>
       </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>161</v>
-      </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="H52" s="6">
-        <v>0.9</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
         <v>163</v>
       </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="H53" s="6">
-        <v>1.1499999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>6.63</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>167</v>
       </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54">
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="G54">
-        <v>0.33</v>
-      </c>
-      <c r="H54" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="G55">
+        <v>0.98</v>
+      </c>
+      <c r="H55" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>170</v>
       </c>
-      <c r="E55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="H55" s="6">
-        <v>6.63</v>
-      </c>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
         <v>172</v>
       </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>173</v>
       </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56">
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59">
         <v>5</v>
       </c>
-      <c r="G56">
-        <v>0.98</v>
-      </c>
-      <c r="H56" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0.94</v>
-      </c>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58">
+      <c r="G59">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60">
         <v>20</v>
       </c>
-      <c r="G58">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1.62</v>
-      </c>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59">
-        <v>20</v>
-      </c>
-      <c r="G59">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H59" s="6">
-        <v>1.62</v>
-      </c>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="G60">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>185</v>
       </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="G60">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>186</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>187</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>188</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G61">
-        <v>0.1</v>
+        <v>0.79</v>
       </c>
       <c r="H61" s="6">
-        <v>0.5</v>
+        <v>6.32</v>
       </c>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -2604,26 +2694,26 @@
         <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
         <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G62">
-        <v>8.1000000000000003E-2</v>
+        <v>0.79</v>
       </c>
       <c r="H62" s="6">
-        <v>1.62</v>
+        <v>6.32</v>
       </c>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>192</v>
       </c>
@@ -2631,13 +2721,13 @@
         <v>193</v>
       </c>
       <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
         <v>194</v>
       </c>
-      <c r="D63" t="s">
-        <v>195</v>
-      </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2650,209 +2740,409 @@
       </c>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
         <v>196</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>198</v>
       </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64">
-        <v>8</v>
-      </c>
-      <c r="G64">
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H65" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
         <v>0.79</v>
       </c>
-      <c r="H64" s="6">
-        <v>6.32</v>
-      </c>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65">
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>0.79</v>
-      </c>
-      <c r="H65" s="6">
+      <c r="H68" s="6">
         <v>3.16</v>
       </c>
-      <c r="J65"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>0.08</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="J66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67">
-        <v>30</v>
-      </c>
-      <c r="G67">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H67" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68">
-        <v>25</v>
-      </c>
-      <c r="G68">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="H68" s="6">
-        <v>1.92</v>
-      </c>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>211</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>3002</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0.63</v>
+      </c>
+      <c r="H69" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>212</v>
       </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>213</v>
       </c>
-      <c r="E69" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>9.08</v>
+      </c>
+      <c r="H71" s="6">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>214</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>0.6</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>215</v>
       </c>
-      <c r="C70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>0.53</v>
+      </c>
+      <c r="H73" s="6">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>216</v>
       </c>
-      <c r="E70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70">
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>0.79</v>
-      </c>
-      <c r="H70" s="6">
-        <v>3.16</v>
-      </c>
-      <c r="J70"/>
+      <c r="G74">
+        <v>5.72</v>
+      </c>
+      <c r="H74" s="6">
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>0.16</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>0.3</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H77" s="6">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>244</v>
+      </c>
+      <c r="B81" s="7">
+        <f>SUM(H22:H77,E2:E17)</f>
+        <v>367.28000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="7">
+        <f>B81/4</f>
+        <v>91.820000000000007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.com/TOTOT-5-5mm-Female-Socket-Electrical/dp/B077YB75N3/ref=pd_sbs_23_3/135-1299000-4253501?_encoding=UTF8&amp;pd_rd_i=B077YB75N3&amp;pd_rd_r=f652d5df-39be-4c55-ada0-8f897135af12&amp;pd_rd_w=RR6O0&amp;pd_rd_wg=9fU1o&amp;pf_rd_p=52b7592c-2dc9-4ac6-84d4-4bda6360045e&amp;pf_rd_r=WZC36MYSS7Y409VS99EM&amp;psc=1&amp;refRID=WZC36MYSS7Y409VS99EM" xr:uid="{2823EBC8-A62B-40EA-9580-0800A536FA0C}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{8136EBD4-5A44-4042-9878-5B63E1A6E4BC}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{B6EE5791-7F0B-4136-83AC-66478A233F09}"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://www.amazon.com/dp/B071483R3F/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B071483R3F&amp;pd_rd_w=MQDeg&amp;pf_rd_p=45a72588-80f7-4414-9851-786f6c16d42b&amp;pd_rd_wg=5gaTf&amp;pf_rd_r=M4DW83QCVHGRFRSX877P&amp;pd_rd_r=f4f1288d-b16e-46c7-b5d7-9c5111b5e081&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlFaTlhDWVQ5WUhBJmVuY3J5cHRlZElkPUEwODY5MzM2MVk4N1NIRVIzQjJMMSZlbmNyeXB0ZWRBZElkPUEwODU1MjUxMlYxTFZHTFQyVzlYUCZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{E397333D-6EBD-4385-9E6B-40DA64E52EF4}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{C1B4AE69-908B-4A35-A9F2-6897B9B8522A}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{1D47EACC-621C-4486-8B8C-801D0A70F0E3}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{F3FD7AC1-AA30-44DD-B67C-DEB00B080BF7}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1E4C9342-722D-4FD7-AB80-7F2151CB5414}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{67C7CBA5-0064-4777-BC8E-5C95878359D6}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{5F7A42E4-292C-4B2C-8E86-7F98CDD20CA5}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{DD60FCF5-01E4-42E3-9864-3FDEDE678329}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.amazon.com/TOTOT-5-5mm-Female-Socket-Electrical/dp/B077YB75N3/ref=pd_sbs_23_3/135-1299000-4253501?_encoding=UTF8&amp;pd_rd_i=B077YB75N3&amp;pd_rd_r=f652d5df-39be-4c55-ada0-8f897135af12&amp;pd_rd_w=RR6O0&amp;pd_rd_wg=9fU1o&amp;pf_rd_p=52b7592c-2dc9-4ac6-84d4-4bda6360045e&amp;pf_rd_r=WZC36MYSS7Y409VS99EM&amp;psc=1&amp;refRID=WZC36MYSS7Y409VS99EM"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://www.amazon.com/dp/B071483R3F/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B071483R3F&amp;pd_rd_w=MQDeg&amp;pf_rd_p=45a72588-80f7-4414-9851-786f6c16d42b&amp;pd_rd_wg=5gaTf&amp;pf_rd_r=M4DW83QCVHGRFRSX877P&amp;pd_rd_r=f4f1288d-b16e-46c7-b5d7-9c5111b5e081&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlFaTlhDWVQ5WUhBJmVuY3J5cHRlZElkPUEwODY5MzM2MVk4N1NIRVIzQjJMMSZlbmNyeXB0ZWRBZElkPUEwODU1MjUxMlYxTFZHTFQyVzlYUCZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
